--- a/Proyecto Final/Categorias_Productos_(1) (1).xlsx
+++ b/Proyecto Final/Categorias_Productos_(1) (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\repositoriopaul\Proyecto Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Escobar\Desktop\repositoriopaul\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Categorias " sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="150">
   <si>
     <t>Pao</t>
   </si>
@@ -443,18 +443,67 @@
     <t>$499,000</t>
   </si>
   <si>
-    <t xml:space="preserve">Casco </t>
+    <t>BRAVO GEL DEDO LARGO Talla S Color Negro</t>
+  </si>
+  <si>
+    <t>Luces</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>Diseño ergonómico y anatomico unisex.
+.-Dimensiones 240mm Largo x 200mm ancho x 50mm alto.
+.-Para MTB y Spinning.
+.-Relleno ultra suave, diseñado para aliviar la presión.
+.-Color Negro.
+.-Tipo de empaque: Sin Empaque.
+.-Condición del articulo: Nuevo.</t>
+  </si>
+  <si>
+    <t>Bks</t>
+  </si>
+  <si>
+    <t>Pedales fabricados en aluminio</t>
+  </si>
+  <si>
+    <t>Shimano</t>
+  </si>
+  <si>
+    <t>Modelo: ALTUS FC-MT210-3 Triplato
+.-Serie HG Mega 9 de 9 velocidades.
+.-Triplato 40/30/22 dientes.
+.-Tamaño de Biela: 170mm
+.-Material Acero y Aluminio.
+.-Peso del Plato 722g. Peso de la Biela 282g.
+.-Color Negro.
+.-Hojas Fijas.
+.-Incluye: Biela izquierda y cartucho o juego de centro BB-MT500</t>
+  </si>
+  <si>
+    <t>Modelo: SM-BB52
+- Color: Negro / Gris
+- Peso 98 Gr
+- Medida centro: 68mm / 73mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;_-;_-@"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,8 +580,20 @@
       <color rgb="FF666666"/>
       <name val="Proxima Nova"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,8 +624,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -601,11 +674,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -673,6 +830,55 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30383,8 +30589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -31702,7 +31908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -31715,8 +31923,8 @@
     <col min="8" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B2" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -31735,38 +31943,360 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="31">
+        <v>295000</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B4" s="45"/>
+      <c r="C4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="15">
-        <v>480000</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="F4" s="33">
+        <v>98</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B5" s="45"/>
+      <c r="C5" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="34">
+        <v>165000</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B6" s="45"/>
+      <c r="C6" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="34">
+        <v>182000</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B7" s="45"/>
+      <c r="C7" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="34">
+        <v>68000</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B8" s="45"/>
+      <c r="C8" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B9" s="45"/>
+      <c r="C9" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="34">
+        <v>10900</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B10" s="45"/>
+      <c r="C10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="33">
+        <v>98</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B11" s="45"/>
+      <c r="C11" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="34">
+        <v>839000</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B12" s="45"/>
+      <c r="C12" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B13" s="45"/>
+      <c r="C13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="34">
+        <v>31900</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B14" s="45"/>
+      <c r="C14" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="34">
+        <v>28900</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B15" s="45"/>
+      <c r="C15" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="34">
+        <v>59900</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B16" s="45"/>
+      <c r="C16" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B17" s="45"/>
+      <c r="C17" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="33">
+        <v>499</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B18" s="45"/>
+      <c r="C18" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B19" s="45"/>
+      <c r="C19" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="32">
+        <v>26900</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15" customHeight="1" thickBot="1">
+      <c r="B20" s="45"/>
+      <c r="C20" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="32">
+        <v>24100</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B21" s="45"/>
+      <c r="C21" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="38">
+        <v>150000</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B22" s="45"/>
+      <c r="C22" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="38">
+        <v>53900</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -32737,6 +33267,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>